--- a/data/trans_dic/IP16B01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16B01-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -800,12 +800,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>61,18; 100,0</t>
+          <t>64,05; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,64; 100,0</t>
+          <t>52,54; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>55,51; 94,88</t>
+          <t>58,44; 94,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,91; 100,0</t>
+          <t>55,06; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>68,01; 93,94</t>
+          <t>68,32; 94,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>66,2; 95,5</t>
+          <t>65,19; 100,0</t>
         </is>
       </c>
     </row>
@@ -910,42 +910,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,2; 98,06</t>
+          <t>89,5; 98,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,61; 95,31</t>
+          <t>78,42; 95,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,85</t>
+          <t>0,0; 4,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>75,78; 90,85</t>
+          <t>75,33; 90,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>69,28; 87,0</t>
+          <t>67,45; 87,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,09</t>
+          <t>0,0; 2,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,24; 93,89</t>
+          <t>84,64; 93,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>76,89; 89,25</t>
+          <t>77,44; 89,52</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,69; 97,34</t>
+          <t>77,27; 97,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>64,71; 95,66</t>
+          <t>65,58; 95,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,22</t>
+          <t>0,0; 12,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>62,51; 89,95</t>
+          <t>63,25; 90,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,48; 96,27</t>
+          <t>71,17; 96,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,25</t>
+          <t>0,0; 6,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>74,69; 91,96</t>
+          <t>74,73; 91,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>74,15; 94,05</t>
+          <t>74,99; 93,79</t>
         </is>
       </c>
     </row>
@@ -1130,42 +1130,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>88,29; 96,69</t>
+          <t>87,91; 97,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,65; 93,66</t>
+          <t>80,36; 93,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,39</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>75,31; 88,51</t>
+          <t>75,4; 87,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,2; 88,58</t>
+          <t>73,93; 88,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>0,0; 1,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>83,75; 91,39</t>
+          <t>83,19; 91,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>79,29; 88,73</t>
+          <t>79,13; 88,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16B01-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -637,27 +637,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,69%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,16%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,93%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,41%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,51%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0; 5,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,96; 94,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,81; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 6,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,39; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,47; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0; 2,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>68,65; 92,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>66,08; 95,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>84,29%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>79,06%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>87,9%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>88,93%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>79,69%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>83,16%</t>
+          <t>89,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>83,41%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>85,51%</t>
+          <t>83,93%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>0,0; 6,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,05; 100,0</t>
+          <t>75,0; 90,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,54; 100,0</t>
+          <t>68,78; 88,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>0; 1,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>58,44; 94,92</t>
+          <t>90,14; 99,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,06; 100,0</t>
+          <t>79,59; 95,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>0,0; 2,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>68,32; 94,05</t>
+          <t>85,64; 94,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>65,19; 100,0</t>
+          <t>76,57; 89,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>79,19%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>88,27%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>95,72%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>89,11%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,88%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,29%</t>
+          <t>90,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>79,06%</t>
+          <t>85,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>90,08%</t>
+          <t>85,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>83,93%</t>
+          <t>87,0%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>0,0; 14,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,5; 98,72</t>
+          <t>62,59; 90,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>78,42; 95,34</t>
+          <t>71,29; 96,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,39</t>
+          <t>0; 3,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>75,33; 90,52</t>
+          <t>75,92; 97,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>67,45; 87,01</t>
+          <t>64,54; 95,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,11</t>
+          <t>0,0; 6,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>84,64; 93,87</t>
+          <t>75,57; 92,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>77,44; 89,52</t>
+          <t>75,15; 95,48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>82,35%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>81,71%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>90,51%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>85,4%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,85%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>79,19%</t>
+          <t>93,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>88,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>85,01%</t>
+          <t>87,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>87,0%</t>
+          <t>84,79%</t>
         </is>
       </c>
     </row>
@@ -1015,172 +1015,61 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>0,0; 3,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,27; 97,49</t>
+          <t>75,19; 88,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,58; 95,53</t>
+          <t>73,73; 88,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,85</t>
+          <t>0; 0,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>63,25; 90,51</t>
+          <t>87,87; 96,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,17; 96,36</t>
+          <t>81,16; 93,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,32</t>
+          <t>0,0; 1,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>74,73; 91,52</t>
+          <t>83,68; 91,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>74,99; 93,79</t>
+          <t>80,18; 89,58</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>93,44%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>88,32%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,08%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>82,35%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>81,71%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>87,91%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>84,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,89</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>87,91; 97,08</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>80,36; 93,73</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,65</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>75,4; 87,8</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>73,93; 88,61</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,75</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>83,19; 91,47</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>79,13; 88,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
